--- a/data/hotels_by_city/Houston/Houston_shard_634.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_634.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d266214-Reviews-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Super-8-By-Wyndham-Houston-West-Katy.h907635.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531689388477&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=7af16054-2196-4ed6-ac30-1a2fce5e438f&amp;mctc=9&amp;exp_dp=66.4&amp;exp_ts=1531689389480&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,654 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r561153682-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>266214</t>
+  </si>
+  <si>
+    <t>561153682</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Affordable and Friendly</t>
+  </si>
+  <si>
+    <t>I own a mobile repair company and enjoyed my stay at Motel 8. The staff are extremely nice people and the rooms are exceptionally clean. The beds are huge and they serve a good breakfast. I will be visiting again if needed in the future. Thanks yall!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r559236677-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>559236677</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r556327713-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>556327713</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r496625625-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>496625625</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Worst Place I have ever stayed!</t>
+  </si>
+  <si>
+    <t>We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were...We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were not having a party and she said she wanted us all to leave. There is no reason at all why I should have to leave after paying for the room until check out the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were...We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were not having a party and she said she wanted us all to leave. There is no reason at all why I should have to leave after paying for the room until check out the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r483309586-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>483309586</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love staying in Goshen staff always above and beyond to help accommodate anything in there power needed </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r457632659-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>457632659</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r385038466-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>385038466</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r384643200-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>384643200</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Help in time of need</t>
+  </si>
+  <si>
+    <t>My truck broke down at Sonata at Mason and IH 10.  My friend Trish and I were trying to get to San Antonio from Houston.  We had spent at least 1 hour traveling at a stop then go rate due to an accident on IH 10 and when the truck tire needing replacing, we decided to stay in Katy, TX for the night.  I am a Wyndham member, so Super 8 was our choice for lodging.  The woman behind was so very nice.  We talked to her about an upcoming doctor's appointment she had the next day.  The next day, she introduced us to her son and another employee who started working there 3 days prior.  We were traveling because my daughter had passed away and I just couldn't stay at my home in East Texas.  The woman, son, and employee gave me condolences for her death.  They were so kind at a time when I really needed it.  TCColmesneil, TXMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My truck broke down at Sonata at Mason and IH 10.  My friend Trish and I were trying to get to San Antonio from Houston.  We had spent at least 1 hour traveling at a stop then go rate due to an accident on IH 10 and when the truck tire needing replacing, we decided to stay in Katy, TX for the night.  I am a Wyndham member, so Super 8 was our choice for lodging.  The woman behind was so very nice.  We talked to her about an upcoming doctor's appointment she had the next day.  The next day, she introduced us to her son and another employee who started working there 3 days prior.  We were traveling because my daughter had passed away and I just couldn't stay at my home in East Texas.  The woman, son, and employee gave me condolences for her death.  They were so kind at a time when I really needed it.  TCColmesneil, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r353103685-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>353103685</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Don't do it unless you must!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although the guy at the front desk was friendly, we were very disappointed in the room. The deadbolt wouldn't lock, and the shower didn't do anything but drip (not exaggerating). We brought the problems up to the desk clerk when we left, and he said he would ask the manager if he could do something for us. So far I haven't heard back from them. Oh, and the room cost about $70, which was overpriced for the quality. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r330761793-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>330761793</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Not great.</t>
+  </si>
+  <si>
+    <t>Nothing special.  A few sketchy people that are at the hotel.  The room was medium clean.  The staff were friendly.  When I showered (every day) the water was terrible.  It went in 3 second bursts of ice cold to scalding.  For a super 8 I expected more.  The office chair was busted.  The front desk lady grabbed one from another room for me, which was nice.  When I first arrive the cleaning lady was talking about a room that had bed bugs (fairly certain she was talking about this hotel) which made me feel itchy the entire stay.  The rooms all have microwaves and fridges so that's a bonus.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r324910715-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>324910715</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Only place available at the time.</t>
+  </si>
+  <si>
+    <t>Greedy, Rude Indian woman that manages the place.  Check Out time is 11 Am. She beats on the door and calls repeatedly an hour to 30 minutes before telling you to be completely out by 11.  This is a tiny dated Motel and they charged $115 for a dirty room.I will advise to stay clear of this place even if there are no other options.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r322192805-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>322192805</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>They had only 1 table in the lobby for breakfast, if you want to call it that. The bed and recliner were so old that you sunk when you got in them. One good thing the TV worked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r272852541-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>272852541</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r262623627-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>262623627</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r230683257-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>230683257</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r219069815-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>219069815</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Purchased two nights, I thought the price was too high, They gave me a small discount, next day I go about my business, came back and the room was not cleaned, I went to the front desk and asked why, the attendant said that it was because of the discount I received, if I wanted a clean room I had to pay an additional $10.00 fee. A terrible sewer odor coming from the drain in the bathroom. Very rude woman at the front counter and Udany an attendant there a total liar.The rest of my family arrives in Houston today for a week stay, needless to say I WILL NOT be staying in this junk.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Purchased two nights, I thought the price was too high, They gave me a small discount, next day I go about my business, came back and the room was not cleaned, I went to the front desk and asked why, the attendant said that it was because of the discount I received, if I wanted a clean room I had to pay an additional $10.00 fee. A terrible sewer odor coming from the drain in the bathroom. Very rude woman at the front counter and Udany an attendant there a total liar.The rest of my family arrives in Houston today for a week stay, needless to say I WILL NOT be staying in this junk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r218698032-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>218698032</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>We went down for a funeral and they were friendly.   The rooms were clean and conveniently located.   The price was reasonable for the area.   The area was not the greatest lots of homeless and panhandlers.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r216782275-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>216782275</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Bad. Just Bad.</t>
+  </si>
+  <si>
+    <t>I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one....I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one. Any one of them. BUT DO NOT GO HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one....I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one. Any one of them. BUT DO NOT GO HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r205982395-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>205982395</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r205956436-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>205956436</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r204061536-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>204061536</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Don't waste your money.</t>
+  </si>
+  <si>
+    <t>The Lady at the front desk was rude and unprofessional the lobby WS dirty. I booked my room through price line on my way to the hotel. Somehow my reservation was made for the following night. She had rooms available but refused to move my reservation. Said she wiuld but priceline wouldnt allow her. LIES! I called priceline and they said "no problem let me call the hotel". The lady told them no they had a 24 hour notification policy. Hell I didn't want to cancel just move my reservstion up a day. Now I'm paying a 100 bucks for nothing and sleeping in my car tonight! I feel like I've been robbed!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Lady at the front desk was rude and unprofessional the lobby WS dirty. I booked my room through price line on my way to the hotel. Somehow my reservation was made for the following night. She had rooms available but refused to move my reservation. Said she wiuld but priceline wouldnt allow her. LIES! I called priceline and they said "no problem let me call the hotel". The lady told them no they had a 24 hour notification policy. Hell I didn't want to cancel just move my reservstion up a day. Now I'm paying a 100 bucks for nothing and sleeping in my car tonight! I feel like I've been robbed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r195399641-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>195399641</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r184567889-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>184567889</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Non smoking is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non smoking room had been smoked in, as was alternative we were shown.  They make you sign an agreement to charge you for pets and smoking in a non smoking room.  I don't appreciate being lied to.  Also, thin walls, limited parking, incompetent staff.  Room pretty clean, but stinks.  Shady clientele.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r182999009-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>182999009</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r180225925-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>180225925</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r178531458-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>178531458</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Keep going</t>
+  </si>
+  <si>
+    <t>I had been on the road working for 15 hours, just to hit rush hour. Stopped here without time to check Tripadvisor, big mistake.  $99 and for what, no continental that I saw ,but coffee, lady was short and seemed aggravated (may do better in her native homeland) Parking if you drive a sub-compact. Very SMALL property.The room appeared clean, carpet was newer and bed was good, had 3 decent pillows. Internet was ok.  I have stayed in brand new Super8's for less than this one and will never be back here, though I'm in Houston frequently.Save some money and try the Motel 6 next door, has much better reviews for half the price. Or go a few more miles and get your monies worth for $100. If they lowered the price to $65 and replaced the "staff" (not likely, it is a Patel ownership) it would be a decent deal....less any real breakfast.I did notice most the "great" reviews here are by onetime users, so consider that, seems suspect to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I had been on the road working for 15 hours, just to hit rush hour. Stopped here without time to check Tripadvisor, big mistake.  $99 and for what, no continental that I saw ,but coffee, lady was short and seemed aggravated (may do better in her native homeland) Parking if you drive a sub-compact. Very SMALL property.The room appeared clean, carpet was newer and bed was good, had 3 decent pillows. Internet was ok.  I have stayed in brand new Super8's for less than this one and will never be back here, though I'm in Houston frequently.Save some money and try the Motel 6 next door, has much better reviews for half the price. Or go a few more miles and get your monies worth for $100. If they lowered the price to $65 and replaced the "staff" (not likely, it is a Patel ownership) it would be a decent deal....less any real breakfast.I did notice most the "great" reviews here are by onetime users, so consider that, seems suspect to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r174410683-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>174410683</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r162194553-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>162194553</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>very bad.</t>
+  </si>
+  <si>
+    <t>hotel did not have my res. altho I booked on line w/ credit card. was put into the worst room in the bldg MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Tricia H, Guest Relations Manager at Super 8 by Wyndham Houston West Katy, responded to this reviewResponded June 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2013</t>
+  </si>
+  <si>
+    <t>hotel did not have my res. altho I booked on line w/ credit card. was put into the worst room in the bldg More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r160172800-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>160172800</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r160125097-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>160125097</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r158273611-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>158273611</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r156702450-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>156702450</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r152168637-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>152168637</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r148402107-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>148402107</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Rude staff, dirty rooms, broken heater, breakfast non-existant</t>
+  </si>
+  <si>
+    <t>The check in clerk tried to get me to take her to breakfast since they didn't have anything there and I questioned her about it. There was hair all over the bath tub and the sink. The bed had a serious sink hole in the middle. Would definately not recommend this room to anyone who likes to stay somewhere decent while traveling.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r147957428-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>147957428</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>Stay ANYWHERE biut here - Just a terrible property</t>
+  </si>
+  <si>
+    <t>Required several night's stay - took a financial loss JUST to check out after first night (stayed elsewhere).   Parking was TERRIBLE.  Fortunately we had our coach being worked on at KATY Camping World - we would NEVER have been able to have our property safely parked - the hotel, of course, does NOT disclaose this NOR do they care.Internet did not work and was NEEDED and DISCUSSED at reservation - again they DID NOT CARE and DID NOT make restitution.Breakfast was BEYOND junk and laughable!!!!Pricing was not inexpensive relative to these 'cheap' hotels.NO place to walk our dog, though delcared a pet-friendly environment :(Shameful mismanagementUnpleasant staff (as others have declared here).Room was decent enough, for the price and relativeGo elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>Required several night's stay - took a financial loss JUST to check out after first night (stayed elsewhere).   Parking was TERRIBLE.  Fortunately we had our coach being worked on at KATY Camping World - we would NEVER have been able to have our property safely parked - the hotel, of course, does NOT disclaose this NOR do they care.Internet did not work and was NEEDED and DISCUSSED at reservation - again they DID NOT CARE and DID NOT make restitution.Breakfast was BEYOND junk and laughable!!!!Pricing was not inexpensive relative to these 'cheap' hotels.NO place to walk our dog, though delcared a pet-friendly environment :(Shameful mismanagementUnpleasant staff (as others have declared here).Room was decent enough, for the price and relativeGo elsewhereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r146708720-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>146708720</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r143232197-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143232197</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Our  recent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay was required when work was being done in our home.  There was nothing extraordinary about this facility.  It was clean however the parking lot is very tight especially when trucks take more than one space.  There was not interaction with the staff other than check-in and she was not overly friendly.  We're fans of Motel 6 and I forgot there is one almost next door.  Since I made the reservation the morning we needed the room, it could not be cancelled.  </t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r142421302-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142421302</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r134075554-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>134075554</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Not A Safe/Clean Hotel</t>
+  </si>
+  <si>
+    <t>Really Bad..My Family had to go to Wal-Mart in the night to get towels because there were 2 in a room for 4 people, called front desk and guess what? No Answer!! Its still daylight outside were are the desk people on a Saturday Afternoon? Ok that was the first..Next.. The room was HOT..AC blowing but not cooling off until hours later..when I finally stop someone in housekeeping to let them know Ac not working. Desk called and said someone will be there..NEVER HAPPENED!! So I didnt even bother trying to get a refund because it was my fault for not reading reviews BEFORE I booked room.. So I checked my family out and went down the street on Grand Parkway. The place had not enough parking because when we were loading up, quest was asking us for our parking spot.. One other couple that was suppose to check in, when they saw what was going on..Canceled there room right there in the parking lot by phone..and Again..No one at Desk!! So If you want cheap, non safe, smellin room..Microwave was filthy,,I mean like really filthy..I know housekeeping didnt look in there for a while..Its a shame cause I really like Super 8 hotels. but this one was REALLY UNSAFE AND DIRTY!! Where do you go to a hotel and you have to bring your own towels..Where they do that at????MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Really Bad..My Family had to go to Wal-Mart in the night to get towels because there were 2 in a room for 4 people, called front desk and guess what? No Answer!! Its still daylight outside were are the desk people on a Saturday Afternoon? Ok that was the first..Next.. The room was HOT..AC blowing but not cooling off until hours later..when I finally stop someone in housekeeping to let them know Ac not working. Desk called and said someone will be there..NEVER HAPPENED!! So I didnt even bother trying to get a refund because it was my fault for not reading reviews BEFORE I booked room.. So I checked my family out and went down the street on Grand Parkway. The place had not enough parking because when we were loading up, quest was asking us for our parking spot.. One other couple that was suppose to check in, when they saw what was going on..Canceled there room right there in the parking lot by phone..and Again..No one at Desk!! So If you want cheap, non safe, smellin room..Microwave was filthy,,I mean like really filthy..I know housekeeping didnt look in there for a while..Its a shame cause I really like Super 8 hotels. but this one was REALLY UNSAFE AND DIRTY!! Where do you go to a hotel and you have to bring your own towels..Where they do that at????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r132781410-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>132781410</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We stay at a lot of Hotels/Motels this is one of the worst you sure don't get what you pay for the room was so hot it did no good to take a shower if that's what you want to call it after about 4hrs it was finally cool enough to sleep without having to wipe the sweat off.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r126809438-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>126809438</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Good Night's Rest</t>
+  </si>
+  <si>
+    <t>Very nice room while I was visiting a church member having surgery at Methodist West early in the a.m. Staff was very nice and our experience was wonderful.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r122258753-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>122258753</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Someone made a mistake. More like a motel six</t>
+  </si>
+  <si>
+    <t>We have stayed at many super 8 motels.  Usually enjoyable.  This one probably can't accomidate parking for all the rooms. There were not enough towels and they were small.  They do not use fitted sheets and the bottom sheets end up loose somewhere on the bed so you are sleeping on the mattress.  Cleaning lady says they don't buy fitted sheets. Continental breakfast area is not much more than a broom closet.  Sadly. We have 3 more nights we have prepaid and can't get out of it.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1186,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1218,2701 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>192</v>
+      </c>
+      <c r="X29" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>208</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>204</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>232</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>241</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" t="s">
+        <v>246</v>
+      </c>
+      <c r="L41" t="s">
+        <v>247</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>249</v>
+      </c>
+      <c r="J42" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" t="s">
+        <v>251</v>
+      </c>
+      <c r="L42" t="s">
+        <v>252</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>255</v>
+      </c>
+      <c r="J43" t="s">
+        <v>256</v>
+      </c>
+      <c r="K43" t="s">
+        <v>257</v>
+      </c>
+      <c r="L43" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_634.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_634.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r605807265-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>266214</t>
+  </si>
+  <si>
+    <t>605807265</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Super not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parking lot is too small. The breakfast area needs attention and more selection. No fruits or bagels or muffins and the waffle batter not being refrigerated and partly uncovered as well as the syrup is unsanitary. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r582006205-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>582006205</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Don't do it.</t>
+  </si>
+  <si>
+    <t>I have never taken the time to write a review but if you have any other options stay anywhere but here. The front desk clerk was extremely rude messed up the reservation and charged twice. Roaches on the floor free of charge.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r561153682-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>266214</t>
-  </si>
-  <si>
     <t>561153682</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r559236677-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -207,6 +246,33 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r547233725-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>547233725</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r541831715-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>541831715</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r496625625-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -225,9 +291,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were...We drove from out of town to see our kids who live in Katy. Only myself and my husband were staying in the room. My kids live with roommates so we invited them to the room to have pizza and to visit for a bit. This was at 5pm in the evening. My sons got there, they are both adults, they came in 1 car just the 2 of them and my 1 yr old grandson. My husband and my kids then left to get the pizza and a 2 liter of soda. They came back and the lady from the front starting harassing us saying we could not have 30 people in our room and we could not be having parties. She said she was watching us and said my husband had already left and came back twice and she wanted to know why. She said she was going to come to our room if she had to. We were eating pizza and talking that is it. All of 4 of us are adults but we didn't even have alcohol or anything and so I confronted her. she started getting loud with me so I was just as loud as her without yelling. my husband then got louder because she called the cops on us, not sure why!! She kept saying she was watching us and would be watching us all night. I told her numerous times we were not having a party and she said she wanted us all to leave. There is no reason at all why I should have to leave after paying for the room until check out the next day.More</t>
   </si>
   <si>
@@ -261,6 +324,45 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r447219512-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>447219512</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Stay</t>
+  </si>
+  <si>
+    <t>It was an ok place to stay for a quick one night stay that is relatively cheap price. Nothing fancy to have the family with, but the location was convenient for my needs.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r418287179-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>418287179</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>My trip</t>
+  </si>
+  <si>
+    <t>Very good stay, room was very clean, could not get the internet to work, ibwould like a better brekfest. Good locations, off I10</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r385038466-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -288,9 +390,6 @@
     <t>My truck broke down at Sonata at Mason and IH 10.  My friend Trish and I were trying to get to San Antonio from Houston.  We had spent at least 1 hour traveling at a stop then go rate due to an accident on IH 10 and when the truck tire needing replacing, we decided to stay in Katy, TX for the night.  I am a Wyndham member, so Super 8 was our choice for lodging.  The woman behind was so very nice.  We talked to her about an upcoming doctor's appointment she had the next day.  The next day, she introduced us to her son and another employee who started working there 3 days prior.  We were traveling because my daughter had passed away and I just couldn't stay at my home in East Texas.  The woman, son, and employee gave me condolences for her death.  They were so kind at a time when I really needed it.  TCColmesneil, TXMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>My truck broke down at Sonata at Mason and IH 10.  My friend Trish and I were trying to get to San Antonio from Houston.  We had spent at least 1 hour traveling at a stop then go rate due to an accident on IH 10 and when the truck tire needing replacing, we decided to stay in Katy, TX for the night.  I am a Wyndham member, so Super 8 was our choice for lodging.  The woman behind was so very nice.  We talked to her about an upcoming doctor's appointment she had the next day.  The next day, she introduced us to her son and another employee who started working there 3 days prior.  We were traveling because my daughter had passed away and I just couldn't stay at my home in East Texas.  The woman, son, and employee gave me condolences for her death.  They were so kind at a time when I really needed it.  TCColmesneil, TXMore</t>
   </si>
   <si>
@@ -312,7 +411,43 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r337745632-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>337745632</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Would have did better sleeping under IH-10</t>
+  </si>
+  <si>
+    <t>Walked in and it stunk. sheets had about 100 million dead sperms, roaches on the wall and in the tub. Looked like a horse gave birth on the floor...Probably the source of the smell. For $120.00 I should have rented a uhaul and slept in the back and showered at a truckstop.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r331017408-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>331017408</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>An entirely poor experience</t>
+  </si>
+  <si>
+    <t>I had informed the motel staff that I would arrive late. My brother also informed the manager on the night of my arrival. I had to take a cab from Houston airport to the hotel - and when I arrived the office was lit and open - but nobody there. I kncked, rang the bell, called out, even called the hotel's number - no-one ever appeared. In the end I had to take my bags and walk to a LaQuinta Inn not too too far and was welcomed there, even with the late hour. I never got to stay at the Super 8 - and quite unlikely to ever again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I had informed the motel staff that I would arrive late. My brother also informed the manager on the night of my arrival. I had to take a cab from Houston airport to the hotel - and when I arrived the office was lit and open - but nobody there. I kncked, rang the bell, called out, even called the hotel's number - no-one ever appeared. In the end I had to take my bags and walk to a LaQuinta Inn not too too far and was welcomed there, even with the late hour. I never got to stay at the Super 8 - and quite unlikely to ever again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r330761793-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
@@ -366,6 +501,33 @@
     <t>They had only 1 table in the lobby for breakfast, if you want to call it that. The bed and recliner were so old that you sunk when you got in them. One good thing the TV worked.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r321285191-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>321285191</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Checked in for the night because my truck broke down and was in the shop for the night. Asked for a smoking room. Next morning the lady comes barging into the room and tells me that it is a non smoking room and I owe her an extra 100$. Then threatens to call the cops when I try to discuss it with her. Shows me a piece of paper that I had supposedly installed. Were not my initials and I had not seen that piece of paper before. Pretty sure it was a scam.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r277075590-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>277075590</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r272852541-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -375,9 +537,6 @@
     <t>05/18/2015</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r262623627-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -402,6 +561,27 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r228786256-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>228786256</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r223496436-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>223496436</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r219069815-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -417,9 +597,6 @@
     <t>Purchased two nights, I thought the price was too high, They gave me a small discount, next day I go about my business, came back and the room was not cleaned, I went to the front desk and asked why, the attendant said that it was because of the discount I received, if I wanted a clean room I had to pay an additional $10.00 fee. A terrible sewer odor coming from the drain in the bathroom. Very rude woman at the front counter and Udany an attendant there a total liar.The rest of my family arrives in Houston today for a week stay, needless to say I WILL NOT be staying in this junk.MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>Purchased two nights, I thought the price was too high, They gave me a small discount, next day I go about my business, came back and the room was not cleaned, I went to the front desk and asked why, the attendant said that it was because of the discount I received, if I wanted a clean room I had to pay an additional $10.00 fee. A terrible sewer odor coming from the drain in the bathroom. Very rude woman at the front counter and Udany an attendant there a total liar.The rest of my family arrives in Houston today for a week stay, needless to say I WILL NOT be staying in this junk.More</t>
   </si>
   <si>
@@ -459,6 +636,39 @@
     <t>I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one....I was greeted with terrible customer service as the lady behind the desk proceeded to not attempt to make my credit card work. (Though it worked this morning for breakfast, hmmm..) Either way, I paid for my very expensive room and walked inside. I was hit with a VERY strong smell of smoke in a non-smoking room, even though I signed a paper saying I would be charged $100 bucks if one did smoke in the room (I don't, but I can't wait to see if they charge me in the next couple of days because it smelled so bad.) The room was HOT and it took hours for the small A/C unit to finally cool it off enough to be bearable. I woke up the next morning with random bites all over the place, including one in my ear that is really bothering me right now. I went to take a shower and the water fluctuates between scolding and cold no matter how you have the water dials turned. Be ready to jump away from the water at any moment. The ice machine was not in any sort of room and was right under a bright light outside where bugs had died previously (probably from the ice) and now lie in/around the ice machine. I would not recommend this to my worst enemy. There are 3 other hotels right next door that I regret not staying at. Pick one. Any one of them. BUT DO NOT GO HERE.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r211760151-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>211760151</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Average room, not very connected</t>
+  </si>
+  <si>
+    <t>Found this Super 8 thanks to my GPS - was supposed to check in to a different Super 8. Front desk lady offered to cancel my reservation and book a new one. Rate was higher than the previous reservation, but at least it saved me a drive back to Houston. The room was average, mostly clean but spotty in some areas ; the microwave looked pretty beat-up and the fridge was not that spic and span either. The internet connection was bad - very bad. Just at a time when I needed it most (GPS decided it needed an update of 2GB) the bandwidth dropped to 0.8 Mbit, too slow to do anything but e-mail. Upon checking out, the front desk clerk explained it was due to the cloud coverage and satellite internet service which was normal for the area.Too expensive for what it brought, would not stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Found this Super 8 thanks to my GPS - was supposed to check in to a different Super 8. Front desk lady offered to cancel my reservation and book a new one. Rate was higher than the previous reservation, but at least it saved me a drive back to Houston. The room was average, mostly clean but spotty in some areas ; the microwave looked pretty beat-up and the fridge was not that spic and span either. The internet connection was bad - very bad. Just at a time when I needed it most (GPS decided it needed an update of 2GB) the bandwidth dropped to 0.8 Mbit, too slow to do anything but e-mail. Upon checking out, the front desk clerk explained it was due to the cloud coverage and satellite internet service which was normal for the area.Too expensive for what it brought, would not stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r206254150-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>206254150</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r205982395-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -468,9 +678,6 @@
     <t>05/17/2014</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r205956436-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -495,6 +702,30 @@
     <t>The Lady at the front desk was rude and unprofessional the lobby WS dirty. I booked my room through price line on my way to the hotel. Somehow my reservation was made for the following night. She had rooms available but refused to move my reservation. Said she wiuld but priceline wouldnt allow her. LIES! I called priceline and they said "no problem let me call the hotel". The lady told them no they had a 24 hour notification policy. Hell I didn't want to cancel just move my reservstion up a day. Now I'm paying a 100 bucks for nothing and sleeping in my car tonight! I feel like I've been robbed!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r201590892-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>201590892</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r196523744-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>196523744</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r195399641-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -534,6 +765,30 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r182892231-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>182892231</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r182343557-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>182343557</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>most horrible experience ever</t>
+  </si>
+  <si>
+    <t>Upon renting a room here, I was denied a refund after less than 10 minutes, the owner/manager was the rudest woman I've ever had the displeasure of encountering. I will be disputing the charges, as I never once stepped foot in the room. I was very displeased with how I was treated, and I will never stay, or encourage anyone to stay in this place.All I could do was laugh at this lady, because she was obviously mad at life.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r180225925-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -576,6 +831,36 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r171219292-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>171219292</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Didn't even make it to the room!</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone.  The front office was incompetent and seemed as though they did not know what they were doing.  The check in process took over 25 minutes, the front lobby was decorated with tacky décor, breakfast area had only one table with two chairs.  The parking lot was crawling with a sketchy crowd.  When I received my key I was instructed to go to a room that someone else was already checked in to.  I was mortified to find out that there were "services" going on in this room.  As a female traveling by myself I did not feel safe at all, in fact I was extremely frightened! I went back and demanded my money back and refused to stay at this establishment.  I would love to give you a review of the inside of the room, but I didn't even get that far.  Went across the street to a different hotel where I was treated with great respect.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone.  The front office was incompetent and seemed as though they did not know what they were doing.  The check in process took over 25 minutes, the front lobby was decorated with tacky décor, breakfast area had only one table with two chairs.  The parking lot was crawling with a sketchy crowd.  When I received my key I was instructed to go to a room that someone else was already checked in to.  I was mortified to find out that there were "services" going on in this room.  As a female traveling by myself I did not feel safe at all, in fact I was extremely frightened! I went back and demanded my money back and refused to stay at this establishment.  I would love to give you a review of the inside of the room, but I didn't even get that far.  Went across the street to a different hotel where I was treated with great respect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r165119508-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>165119508</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r162194553-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -621,6 +906,36 @@
     <t>05/08/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r158433189-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>158433189</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>my worst nightmare</t>
+  </si>
+  <si>
+    <t>My worst Hotel experience ever. I booked for a King bed but the Indian lady gave me a double coz thats all she had.The Internet rate was $83 per night. She charged $119 for this hell-hole...and told me If I didnt like it, I could cancel...but by that time, my guests from out of Town were already on their way from the Airport, with directions to go there.The room carpet was dingy and old and we kept tripping on its raised ends. I swear theshower didnt work...and we couldnt call thefront desk from our room coz the room phone didnt work either.eventually someone came and fixed it and left a pool of water on the bathroom floor. It gets batter. The shower worked for that night. In the morning, it was broken again and we had to bathe in the tub like ducks.the so-called -complementary bkfst was in tghe office with only one table and two chair...we went to theMc Donalds next door.....There was no place to park our cars...we parked on the street...and oh year, they have a big sign..." We do not guarantee the safety of your vehycle.".....wow wow...wow.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My worst Hotel experience ever. I booked for a King bed but the Indian lady gave me a double coz thats all she had.The Internet rate was $83 per night. She charged $119 for this hell-hole...and told me If I didnt like it, I could cancel...but by that time, my guests from out of Town were already on their way from the Airport, with directions to go there.The room carpet was dingy and old and we kept tripping on its raised ends. I swear theshower didnt work...and we couldnt call thefront desk from our room coz the room phone didnt work either.eventually someone came and fixed it and left a pool of water on the bathroom floor. It gets batter. The shower worked for that night. In the morning, it was broken again and we had to bathe in the tub like ducks.the so-called -complementary bkfst was in tghe office with only one table and two chair...we went to theMc Donalds next door.....There was no place to park our cars...we parked on the street...and oh year, they have a big sign..." We do not guarantee the safety of your vehycle.".....wow wow...wow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r158413620-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>158413620</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r158273611-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -642,9 +957,6 @@
     <t>04/05/2013</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r152168637-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -654,6 +966,42 @@
     <t>02/15/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r148662398-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>148662398</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE PLACE - DO NOT GO HERE!!!</t>
+  </si>
+  <si>
+    <t>This place is a rat whole. The front desk people are rude. there are only 2 chairs for breakfast &amp; their breakfast is the wrote thing ever, even an independent hotel would have a better breakfast. JUST DO GO HERE!!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r148556122-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>148556122</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The check-in/ front desk person was not very friendly, responding with sarcasm with questions regarding breakfast. The room was not cleaned very well, there was hair throughout the bathroom. The water for the shower, changed from hot to cold. I would not recommend this hotel, definately over paid. </t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r148402107-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -669,9 +1017,6 @@
     <t>The check in clerk tried to get me to take her to breakfast since they didn't have anything there and I questioned her about it. There was hair all over the bath tub and the sink. The bed had a serious sink hole in the middle. Would definately not recommend this room to anyone who likes to stay somewhere decent while traveling.</t>
   </si>
   <si>
-    <t>December 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r147957428-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -699,6 +1044,36 @@
     <t>12/03/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r145536052-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>145536052</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r143953916-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143953916</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Truck driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had bugs on my bed. The price was high, they wrote the second room price in pen on my copy of the bill. </t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r143232197-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -714,9 +1089,6 @@
     <t xml:space="preserve">Our stay was required when work was being done in our home.  There was nothing extraordinary about this facility.  It was clean however the parking lot is very tight especially when trucks take more than one space.  There was not interaction with the staff other than check-in and she was not overly friendly.  We're fans of Motel 6 and I forgot there is one almost next door.  Since I made the reservation the morning we needed the room, it could not be cancelled.  </t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r142421302-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -747,6 +1119,39 @@
     <t>Really Bad..My Family had to go to Wal-Mart in the night to get towels because there were 2 in a room for 4 people, called front desk and guess what? No Answer!! Its still daylight outside were are the desk people on a Saturday Afternoon? Ok that was the first..Next.. The room was HOT..AC blowing but not cooling off until hours later..when I finally stop someone in housekeeping to let them know Ac not working. Desk called and said someone will be there..NEVER HAPPENED!! So I didnt even bother trying to get a refund because it was my fault for not reading reviews BEFORE I booked room.. So I checked my family out and went down the street on Grand Parkway. The place had not enough parking because when we were loading up, quest was asking us for our parking spot.. One other couple that was suppose to check in, when they saw what was going on..Canceled there room right there in the parking lot by phone..and Again..No one at Desk!! So If you want cheap, non safe, smellin room..Microwave was filthy,,I mean like really filthy..I know housekeeping didnt look in there for a while..Its a shame cause I really like Super 8 hotels. but this one was REALLY UNSAFE AND DIRTY!! Where do you go to a hotel and you have to bring your own towels..Where they do that at????More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r133687871-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133687871</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>hotel was very clean, easy to find , check in was easy , Wife and I wasnt in room 10 mins after check in and front desk was already calling to see if we had enough towels and coffee and was the room was clean. Just that one call made the difference in our stay. I would say this was one of the best hotels i've stayed in for the price. i would say you could spend another hundred dollars a night and maybe get something better but for the money it was very nice.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r133237242-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133237242</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Super 8 - Katy Texas - UNSAFE</t>
+  </si>
+  <si>
+    <t>Absolutely terrible hotel - man broke into room while college age daughter was staying there, attempts to offer her money as if a prostitute.  Called police, left hotel, attempted to get refund, Nina at front desk claimed no responsibility, offered no condolences, only concerned about not refunding the fee, no human compassion at all, or regard for customer safety.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r132781410-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -756,9 +1161,6 @@
     <t>06/25/2012</t>
   </si>
   <si>
-    <t>Horrible</t>
-  </si>
-  <si>
     <t>We stay at a lot of Hotels/Motels this is one of the worst you sure don't get what you pay for the room was so hot it did no good to take a shower if that's what you want to call it after about 4hrs it was finally cool enough to sleep without having to wipe the sweat off.</t>
   </si>
   <si>
@@ -793,6 +1195,39 @@
   </si>
   <si>
     <t>We have stayed at many super 8 motels.  Usually enjoyable.  This one probably can't accomidate parking for all the rooms. There were not enough towels and they were small.  They do not use fitted sheets and the bottom sheets end up loose somewhere on the bed so you are sleeping on the mattress.  Cleaning lady says they don't buy fitted sheets. Continental breakfast area is not much more than a broom closet.  Sadly. We have 3 more nights we have prepaid and can't get out of it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r116967829-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>116967829</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>Do not stay ....</t>
+  </si>
+  <si>
+    <t>Staff not good at front desk specially  Indian lady ,dirty, bed bug ,pls don't stay .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d266214-r61381792-Super_8_by_Wyndham_Houston_West_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>61381792</t>
+  </si>
+  <si>
+    <t>04/14/2010</t>
+  </si>
+  <si>
+    <t>Comortable rooms, cramped outside</t>
+  </si>
+  <si>
+    <t>Room was very comfortable, quiet, clean, pleasant. Staff polite--called once we were in our room to make sure everything was acceptable.  Breakfast minimal--a small counter top of food with no eating space.  Weird group staying at the hotel--lots of work crews hanging out in the parking lot, several smoking/drinking alcohol.  View is of parking lot and freeway.  Parking lot very cramped.All-in-all, once we got into our room it was a great place to stay.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1762,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1335,12 +1770,22 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1377,18 +1822,20 @@
       <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s"/>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1397,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -1412,7 +1859,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1428,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1437,44 +1884,40 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1489,7 +1932,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1498,32 +1941,36 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1534,7 +1981,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1550,7 +1997,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1559,50 +2006,44 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>75</v>
-      </c>
+      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1617,53 +2058,57 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>78</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
         <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1678,46 +2123,46 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>81</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1760,29 +2205,23 @@
         <v>89</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1827,20 +2266,30 @@
         <v>96</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1863,39 +2312,39 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
@@ -1909,9 +2358,7 @@
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1926,46 +2373,50 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>107</v>
       </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>110</v>
-      </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1973,7 +2424,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1989,50 +2440,50 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
         <v>111</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>112</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>114</v>
       </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2040,7 +2491,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -2056,46 +2507,46 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>116</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>117</v>
-      </c>
-      <c r="J14" t="s">
-        <v>118</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2117,53 +2568,59 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>121</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>122</v>
       </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2178,7 +2635,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2187,42 +2644,40 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2237,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2246,34 +2701,34 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>1</v>
@@ -2284,7 +2739,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -2300,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2309,39 +2764,41 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -2357,7 +2814,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2366,37 +2823,37 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2404,7 +2861,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -2420,7 +2877,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2429,44 +2886,46 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2481,7 +2940,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2490,44 +2949,50 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s">
+        <v>160</v>
+      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2542,7 +3007,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2551,45 +3016,39 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>155</v>
       </c>
-      <c r="K22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -2605,7 +3064,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2614,38 +3073,28 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2666,7 +3115,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2675,36 +3124,44 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" t="s">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>167</v>
-      </c>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2719,7 +3176,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2728,33 +3185,33 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -2780,7 +3237,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2789,10 +3246,10 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -2800,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2811,9 +3268,7 @@
       <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>1</v>
       </c>
@@ -2841,7 +3296,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2850,50 +3305,44 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K27" t="s">
-        <v>178</v>
-      </c>
-      <c r="L27" t="s">
-        <v>179</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
         <v>180</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s">
-        <v>181</v>
-      </c>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2908,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -2917,44 +3366,48 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
+      <c r="Y28" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2969,7 +3422,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -2978,53 +3431,45 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>187</v>
       </c>
-      <c r="J29" t="s">
-        <v>188</v>
-      </c>
-      <c r="K29" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" t="s">
-        <v>190</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>191</v>
-      </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>192</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
         <v>193</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30">
@@ -3040,49 +3485,49 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
         <v>195</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>196</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>197</v>
       </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+      <c r="L30" t="s">
+        <v>198</v>
+      </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
+      <c r="Y30" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3097,7 +3542,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3106,34 +3551,34 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>199</v>
       </c>
-      <c r="J31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>191</v>
-      </c>
       <c r="O31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
       </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>1</v>
@@ -3143,7 +3588,9 @@
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
+      <c r="Y31" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3158,7 +3605,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3167,33 +3614,37 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
         <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3204,7 +3655,9 @@
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
+      <c r="Y32" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3219,7 +3672,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3228,44 +3681,48 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
+      <c r="Y33" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3280,7 +3737,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3289,48 +3746,44 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s"/>
-      <c r="L34" t="s">
-        <v>56</v>
-      </c>
+      <c r="L34" t="s"/>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s">
         <v>52</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s">
-        <v>58</v>
-      </c>
+      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3345,7 +3798,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3354,50 +3807,44 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
-      </c>
-      <c r="K35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
         <v>216</v>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>217</v>
-      </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3412,7 +3859,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3421,41 +3868,37 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
-        <v>217</v>
-      </c>
-      <c r="O36" t="s">
-        <v>69</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3463,7 +3906,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
@@ -3479,7 +3922,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3488,37 +3931,37 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
         <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3540,7 +3983,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3549,50 +3992,44 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
-      </c>
-      <c r="K38" t="s">
-        <v>230</v>
-      </c>
-      <c r="L38" t="s">
-        <v>231</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>231</v>
-      </c>
+      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3607,7 +4044,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3616,37 +4053,37 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3668,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -3677,49 +4114,35 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K40" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="s">
-        <v>241</v>
-      </c>
-      <c r="O40" t="s">
-        <v>90</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41">
@@ -3735,7 +4158,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -3744,46 +4167,44 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J41" t="s">
-        <v>245</v>
-      </c>
-      <c r="K41" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" t="s">
         <v>247</v>
       </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>247</v>
-      </c>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3798,50 +4219,40 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>248</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
-        <v>249</v>
-      </c>
-      <c r="J42" t="s">
-        <v>250</v>
-      </c>
-      <c r="K42" t="s">
-        <v>251</v>
-      </c>
-      <c r="L42" t="s">
-        <v>252</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>253</v>
-      </c>
       <c r="O42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3849,7 +4260,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -3865,54 +4276,1982 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
         <v>254</v>
       </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>255</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>256</v>
       </c>
-      <c r="K43" t="s">
-        <v>257</v>
-      </c>
-      <c r="L43" t="s">
-        <v>258</v>
-      </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>248</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>3</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
         <v>258</v>
+      </c>
+      <c r="J44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>248</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" t="s">
+        <v>262</v>
+      </c>
+      <c r="K45" t="s">
+        <v>263</v>
+      </c>
+      <c r="L45" t="s">
+        <v>264</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>272</v>
+      </c>
+      <c r="J47" t="s">
+        <v>273</v>
+      </c>
+      <c r="K47" t="s">
+        <v>274</v>
+      </c>
+      <c r="L47" t="s">
+        <v>275</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>270</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>280</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>282</v>
+      </c>
+      <c r="J49" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" t="s">
+        <v>284</v>
+      </c>
+      <c r="L49" t="s">
+        <v>285</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>286</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>287</v>
+      </c>
+      <c r="X49" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>286</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>293</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>294</v>
+      </c>
+      <c r="J51" t="s">
+        <v>295</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>286</v>
+      </c>
+      <c r="O51" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" t="s">
+        <v>298</v>
+      </c>
+      <c r="K52" t="s">
+        <v>299</v>
+      </c>
+      <c r="L52" t="s">
+        <v>300</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>301</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>305</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>307</v>
+      </c>
+      <c r="J54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" t="s">
+        <v>312</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>305</v>
+      </c>
+      <c r="O55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>314</v>
+      </c>
+      <c r="J56" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>69</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>309</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>317</v>
+      </c>
+      <c r="J57" t="s">
+        <v>318</v>
+      </c>
+      <c r="K57" t="s">
+        <v>319</v>
+      </c>
+      <c r="L57" t="s">
+        <v>320</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>321</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>323</v>
+      </c>
+      <c r="J58" t="s">
+        <v>324</v>
+      </c>
+      <c r="K58" t="s">
+        <v>325</v>
+      </c>
+      <c r="L58" t="s">
+        <v>326</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>327</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" t="s">
+        <v>330</v>
+      </c>
+      <c r="K59" t="s">
+        <v>331</v>
+      </c>
+      <c r="L59" t="s">
+        <v>332</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>327</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>333</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>334</v>
+      </c>
+      <c r="J60" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" t="s">
+        <v>336</v>
+      </c>
+      <c r="L60" t="s">
+        <v>337</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>327</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>339</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>327</v>
+      </c>
+      <c r="O61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>345</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>347</v>
+      </c>
+      <c r="J63" t="s">
+        <v>348</v>
+      </c>
+      <c r="K63" t="s">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s">
+        <v>350</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>351</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>353</v>
+      </c>
+      <c r="J64" t="s">
+        <v>354</v>
+      </c>
+      <c r="K64" t="s">
+        <v>355</v>
+      </c>
+      <c r="L64" t="s">
+        <v>356</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>351</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>358</v>
+      </c>
+      <c r="J65" t="s">
+        <v>359</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>351</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" t="s">
+        <v>362</v>
+      </c>
+      <c r="K66" t="s">
+        <v>363</v>
+      </c>
+      <c r="L66" t="s">
+        <v>364</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>365</v>
+      </c>
+      <c r="O66" t="s">
+        <v>114</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>367</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>368</v>
+      </c>
+      <c r="J67" t="s">
+        <v>369</v>
+      </c>
+      <c r="K67" t="s">
+        <v>370</v>
+      </c>
+      <c r="L67" t="s">
+        <v>371</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>372</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>374</v>
+      </c>
+      <c r="J68" t="s">
+        <v>375</v>
+      </c>
+      <c r="K68" t="s">
+        <v>376</v>
+      </c>
+      <c r="L68" t="s">
+        <v>377</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>372</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>379</v>
+      </c>
+      <c r="J69" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s">
+        <v>164</v>
+      </c>
+      <c r="L69" t="s">
+        <v>381</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" t="s">
+        <v>385</v>
+      </c>
+      <c r="L70" t="s">
+        <v>386</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>387</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>389</v>
+      </c>
+      <c r="J71" t="s">
+        <v>390</v>
+      </c>
+      <c r="K71" t="s">
+        <v>391</v>
+      </c>
+      <c r="L71" t="s">
+        <v>392</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>393</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>394</v>
+      </c>
+      <c r="J72" t="s">
+        <v>395</v>
+      </c>
+      <c r="K72" t="s">
+        <v>396</v>
+      </c>
+      <c r="L72" t="s">
+        <v>397</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31515</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K73" t="s">
+        <v>401</v>
+      </c>
+      <c r="L73" t="s">
+        <v>402</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>403</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
